--- a/data_year/zb/城市概况/全部地级及以上城市数.xlsx
+++ b/data_year/zb/城市概况/全部地级及以上城市数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,589 +473,337 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="C2" t="n">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="D2" t="n">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="E2" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H2" t="n">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="C3" t="n">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="D3" t="n">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="E3" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H3" t="n">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="C4" t="n">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D4" t="n">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="E4" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F4" t="n">
         <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H4" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="C5" t="n">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D5" t="n">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="E5" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H5" t="n">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C6" t="n">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="D6" t="n">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E6" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F6" t="n">
         <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H6" t="n">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="C7" t="n">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="D7" t="n">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="E7" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H7" t="n">
-        <v>108</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="C8" t="n">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="D8" t="n">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E8" t="n">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G8" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H8" t="n">
-        <v>106</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="C9" t="n">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="D9" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="E9" t="n">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G9" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" t="n">
-        <v>111</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="C10" t="n">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="D10" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E10" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G10" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H10" t="n">
-        <v>110</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="C11" t="n">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="D11" t="n">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E11" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G11" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H11" t="n">
-        <v>110</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="C12" t="n">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="D12" t="n">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E12" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F12" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G12" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H12" t="n">
-        <v>109</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="C13" t="n">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="D13" t="n">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="E13" t="n">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="F13" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G13" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="H13" t="n">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>289</v>
-      </c>
-      <c r="C14" t="n">
-        <v>82</v>
-      </c>
-      <c r="D14" t="n">
-        <v>50</v>
-      </c>
-      <c r="E14" t="n">
-        <v>31</v>
-      </c>
-      <c r="F14" t="n">
-        <v>4</v>
-      </c>
-      <c r="G14" t="n">
-        <v>14</v>
-      </c>
-      <c r="H14" t="n">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>290</v>
-      </c>
-      <c r="C15" t="n">
-        <v>86</v>
-      </c>
-      <c r="D15" t="n">
-        <v>52</v>
-      </c>
-      <c r="E15" t="n">
-        <v>33</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
-      </c>
-      <c r="G15" t="n">
-        <v>14</v>
-      </c>
-      <c r="H15" t="n">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>292</v>
-      </c>
-      <c r="C16" t="n">
-        <v>91</v>
-      </c>
-      <c r="D16" t="n">
-        <v>47</v>
-      </c>
-      <c r="E16" t="n">
-        <v>35</v>
-      </c>
-      <c r="F16" t="n">
-        <v>4</v>
-      </c>
-      <c r="G16" t="n">
-        <v>17</v>
-      </c>
-      <c r="H16" t="n">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>295</v>
-      </c>
-      <c r="C17" t="n">
-        <v>94</v>
-      </c>
-      <c r="D17" t="n">
-        <v>49</v>
-      </c>
-      <c r="E17" t="n">
-        <v>38</v>
-      </c>
-      <c r="F17" t="n">
-        <v>7</v>
-      </c>
-      <c r="G17" t="n">
-        <v>15</v>
-      </c>
-      <c r="H17" t="n">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>297</v>
-      </c>
-      <c r="C18" t="n">
-        <v>96</v>
-      </c>
-      <c r="D18" t="n">
-        <v>43</v>
-      </c>
-      <c r="E18" t="n">
-        <v>43</v>
-      </c>
-      <c r="F18" t="n">
-        <v>8</v>
-      </c>
-      <c r="G18" t="n">
-        <v>17</v>
-      </c>
-      <c r="H18" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>298</v>
-      </c>
-      <c r="C19" t="n">
-        <v>100</v>
-      </c>
-      <c r="D19" t="n">
-        <v>42</v>
-      </c>
-      <c r="E19" t="n">
-        <v>42</v>
-      </c>
-      <c r="F19" t="n">
-        <v>9</v>
-      </c>
-      <c r="G19" t="n">
-        <v>19</v>
-      </c>
-      <c r="H19" t="n">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>297</v>
-      </c>
-      <c r="C20" t="n">
-        <v>99</v>
-      </c>
-      <c r="D20" t="n">
-        <v>40</v>
-      </c>
-      <c r="E20" t="n">
-        <v>42</v>
-      </c>
-      <c r="F20" t="n">
-        <v>8</v>
-      </c>
-      <c r="G20" t="n">
-        <v>20</v>
-      </c>
-      <c r="H20" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>297</v>
-      </c>
-      <c r="C21" t="n">
-        <v>98</v>
-      </c>
-      <c r="D21" t="n">
-        <v>39</v>
-      </c>
-      <c r="E21" t="n">
-        <v>44</v>
-      </c>
-      <c r="F21" t="n">
-        <v>8</v>
-      </c>
-      <c r="G21" t="n">
-        <v>20</v>
-      </c>
-      <c r="H21" t="n">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>297</v>
-      </c>
-      <c r="C22" t="n">
-        <v>96</v>
-      </c>
-      <c r="D22" t="n">
-        <v>39</v>
-      </c>
-      <c r="E22" t="n">
-        <v>46</v>
-      </c>
-      <c r="F22" t="n">
-        <v>8</v>
-      </c>
-      <c r="G22" t="n">
-        <v>22</v>
-      </c>
-      <c r="H22" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
